--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2168826.672258181</v>
+        <v>-2169539.276732223</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.42841477</v>
+        <v>169821.4284147699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566235</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>166.0857417061522</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384194</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>169.0990408403145</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>41.90486648190105</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851662</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134801</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437489</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084697</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245631</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491533</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947034</v>
+        <v>142.5243430301879</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650158</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412739</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605254</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989463</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W13" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368725</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961314</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>97.48402259269956</v>
       </c>
       <c r="C14" t="n">
-        <v>143.8894345422091</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550883</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.453064970151</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.30407534391171</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810813</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851679</v>
+        <v>131.8708783327648</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134819</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437506</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084714</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245648</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>188.5623770505815</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947051</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650175</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412756</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605271</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226099</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.7793658598948</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647802</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368742</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961331</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.66264858577216</v>
+        <v>76.66264858577222</v>
       </c>
       <c r="C17" t="n">
-        <v>52.78090558911765</v>
+        <v>52.78090558911771</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016617</v>
       </c>
       <c r="E17" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957504</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7746578479523</v>
+        <v>105.7746578479524</v>
       </c>
       <c r="G17" t="n">
-        <v>121.4132451535436</v>
+        <v>121.4132451535437</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194025</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709091</v>
       </c>
       <c r="W17" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370578</v>
       </c>
       <c r="X17" t="n">
-        <v>62.35812250264496</v>
+        <v>62.35812250264502</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638778</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>18.0822193329421</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>166.0857417061523</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4680557255734845</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.09089139533013</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>113.6275570590977</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.73137899049685</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098007</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131462</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741947</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936036</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719809</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775722</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059688</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036461</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203133</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177676</v>
+        <v>8.997433817177534</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325364</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411194</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577343</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266735</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504173</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>11.89613542384872</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>105.2018464969822</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089757</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736964</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897899</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771438003</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096065006</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257522</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913239</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6420385164173</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130272</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209926</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135816</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
         <v>124.3051829741945</v>
@@ -2804,13 +2804,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036448</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177534</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325347</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
         <v>124.4294871577341</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>77.7497990754453</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.50322227787052</v>
+        <v>1.503222277870549</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7610810008974</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>15.74207319528663</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203128</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177608</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>31.65601547712093</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>54.73916262726163</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9701989459033</v>
+        <v>1.503222277870634</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V33" t="n">
-        <v>27.1819442473695</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897885</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437946</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992957</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096065001</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="35">
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>19.45114277786244</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>186.9219652117629</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>101.7341469982113</v>
       </c>
       <c r="I39" t="n">
-        <v>49.26502329816292</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7444246896586</v>
+        <v>79.90504698469903</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>186.3582172426376</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>25.70776865861438</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,19 +4059,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
-        <v>109.3664206826901</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>67.31407432950073</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.70776865861438</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>583.4423962424125</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="C11" t="n">
-        <v>409.8304285084494</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="D11" t="n">
-        <v>248.7773877835281</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7773877835281</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7773877835281</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="G11" t="n">
-        <v>248.7773877835281</v>
+        <v>182.8483656248063</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055355</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K11" t="n">
-        <v>15.08499016404652</v>
+        <v>185.0137379722658</v>
       </c>
       <c r="L11" t="n">
-        <v>61.85832839434051</v>
+        <v>231.7870762025598</v>
       </c>
       <c r="M11" t="n">
-        <v>248.5350816744162</v>
+        <v>312.7073869257115</v>
       </c>
       <c r="N11" t="n">
-        <v>435.211834954492</v>
+        <v>388.0946368589497</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602033</v>
+        <v>574.7713901390255</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381372</v>
+        <v>736.4245268169594</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="W11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="X11" t="n">
-        <v>583.4423962424125</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Y11" t="n">
-        <v>583.4423962424125</v>
+        <v>563.7824606764865</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>271.1813196645862</v>
+        <v>24.36630551739064</v>
       </c>
       <c r="C12" t="n">
-        <v>228.85317170307</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R12" t="n">
-        <v>618.180176535221</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S12" t="n">
-        <v>604.7884567690426</v>
+        <v>740.8577884361481</v>
       </c>
       <c r="T12" t="n">
-        <v>567.7778005858628</v>
+        <v>550.3907409103081</v>
       </c>
       <c r="U12" t="n">
-        <v>508.284458823868</v>
+        <v>359.923693384468</v>
       </c>
       <c r="V12" t="n">
-        <v>445.3356996411943</v>
+        <v>296.9749342017943</v>
       </c>
       <c r="W12" t="n">
-        <v>356.0680892851777</v>
+        <v>207.7073238457778</v>
       </c>
       <c r="X12" t="n">
-        <v>316.6910538155663</v>
+        <v>168.3302883761663</v>
       </c>
       <c r="Y12" t="n">
-        <v>271.1813196645862</v>
+        <v>24.36630551739064</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703784</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>27.54433520609494</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>60.35986428920106</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>96.64683732040804</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>135.6555767554556</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1883116273056</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H13" t="n">
-        <v>157.5698374679133</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I13" t="n">
-        <v>170.9162393168237</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J13" t="n">
-        <v>170.9162393168237</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K13" t="n">
-        <v>281.1202482778215</v>
+        <v>125.2889991250443</v>
       </c>
       <c r="L13" t="n">
-        <v>359.0316886375208</v>
+        <v>270.0272385803023</v>
       </c>
       <c r="M13" t="n">
-        <v>359.0316886375208</v>
+        <v>359.0316886375209</v>
       </c>
       <c r="N13" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="O13" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577483</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S13" t="n">
-        <v>436.216321211155</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272635</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791729</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701884</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W13" t="n">
-        <v>98.3187574098045</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456485</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>521.2871312168111</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="C14" t="n">
-        <v>375.9442680428625</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="D14" t="n">
-        <v>375.9442680428625</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="E14" t="n">
-        <v>375.9442680428625</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="F14" t="n">
-        <v>375.9442680428625</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="G14" t="n">
-        <v>185.4772205170226</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404652</v>
+        <v>78.38515743055358</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404652</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K14" t="n">
-        <v>15.08499016404652</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="L14" t="n">
-        <v>61.85832839434051</v>
+        <v>162.4191122870027</v>
       </c>
       <c r="M14" t="n">
-        <v>142.7786391174923</v>
+        <v>349.0958655670784</v>
       </c>
       <c r="N14" t="n">
-        <v>329.455392397568</v>
+        <v>535.7726188471541</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8287151602035</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="P14" t="n">
         <v>666.4818518381373</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S14" t="n">
-        <v>704.5730554290849</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T14" t="n">
-        <v>704.5730554290849</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U14" t="n">
-        <v>704.5730554290849</v>
+        <v>681.7031796298708</v>
       </c>
       <c r="V14" t="n">
-        <v>704.5730554290849</v>
+        <v>537.7131449989649</v>
       </c>
       <c r="W14" t="n">
-        <v>704.5730554290849</v>
+        <v>537.7131449989649</v>
       </c>
       <c r="X14" t="n">
-        <v>521.2871312168111</v>
+        <v>537.7131449989649</v>
       </c>
       <c r="Y14" t="n">
-        <v>521.2871312168111</v>
+        <v>537.7131449989649</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185.146421756359</v>
+        <v>151.3701320239314</v>
       </c>
       <c r="C15" t="n">
-        <v>175.8651064030148</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="D15" t="n">
-        <v>15.08499016404652</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="E15" t="n">
-        <v>15.08499016404652</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404652</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404652</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R15" t="n">
-        <v>754.2495082023262</v>
+        <v>618.1801765352211</v>
       </c>
       <c r="S15" t="n">
-        <v>740.8577884361476</v>
+        <v>484.977269128388</v>
       </c>
       <c r="T15" t="n">
-        <v>703.8471322529676</v>
+        <v>447.9666129452082</v>
       </c>
       <c r="U15" t="n">
-        <v>644.3537904909726</v>
+        <v>388.4732711832133</v>
       </c>
       <c r="V15" t="n">
-        <v>581.4050313082987</v>
+        <v>325.5245120005396</v>
       </c>
       <c r="W15" t="n">
-        <v>492.137420952282</v>
+        <v>236.2569016445231</v>
       </c>
       <c r="X15" t="n">
-        <v>301.6703734264421</v>
+        <v>196.8798661749116</v>
       </c>
       <c r="Y15" t="n">
-        <v>256.1606392754618</v>
+        <v>151.3701320239314</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.79059153703781</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404652</v>
+        <v>27.54433520609489</v>
       </c>
       <c r="D16" t="n">
-        <v>47.90051924715248</v>
+        <v>60.35986428920098</v>
       </c>
       <c r="E16" t="n">
-        <v>84.18749227835929</v>
+        <v>96.64683732040794</v>
       </c>
       <c r="F16" t="n">
-        <v>84.18749227835929</v>
+        <v>123.718823822725</v>
       </c>
       <c r="G16" t="n">
-        <v>84.18749227835929</v>
+        <v>133.251558694575</v>
       </c>
       <c r="H16" t="n">
-        <v>84.18749227835929</v>
+        <v>145.6330845351827</v>
       </c>
       <c r="I16" t="n">
-        <v>97.53389412726953</v>
+        <v>145.6330845351827</v>
       </c>
       <c r="J16" t="n">
-        <v>155.053585193881</v>
+        <v>145.6330845351827</v>
       </c>
       <c r="K16" t="n">
-        <v>240.3611014276753</v>
+        <v>255.8370934961804</v>
       </c>
       <c r="L16" t="n">
-        <v>240.3611014276753</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="M16" t="n">
-        <v>240.3611014276753</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="N16" t="n">
-        <v>400.5753329514397</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="O16" t="n">
-        <v>400.5753329514397</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612866</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612866</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577495</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.216321211156</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272643</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791736</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701889</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980485</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456502</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340406</v>
+        <v>463.5335379340418</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844269</v>
+        <v>410.2194918844279</v>
       </c>
       <c r="D17" t="n">
-        <v>369.464372843855</v>
+        <v>369.464372843856</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372145</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019091</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267298</v>
+        <v>65.17929883267304</v>
       </c>
       <c r="H17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897383</v>
+        <v>70.94848926897377</v>
       </c>
       <c r="J17" t="n">
-        <v>191.488427791811</v>
+        <v>70.94848926897377</v>
       </c>
       <c r="K17" t="n">
-        <v>191.488427791811</v>
+        <v>70.94848926897377</v>
       </c>
       <c r="L17" t="n">
-        <v>378.1651810718868</v>
+        <v>117.7218274992678</v>
       </c>
       <c r="M17" t="n">
-        <v>459.0854917950385</v>
+        <v>198.6421382224195</v>
       </c>
       <c r="N17" t="n">
-        <v>645.7622450751143</v>
+        <v>274.0293881556577</v>
       </c>
       <c r="O17" t="n">
-        <v>680.0389287085438</v>
+        <v>308.3060717890872</v>
       </c>
       <c r="P17" t="n">
-        <v>680.0389287085438</v>
+        <v>462.4829784168846</v>
       </c>
       <c r="Q17" t="n">
-        <v>680.0389287085438</v>
+        <v>462.4829784168846</v>
       </c>
       <c r="R17" t="n">
-        <v>680.0389287085438</v>
+        <v>564.0214906197996</v>
       </c>
       <c r="S17" t="n">
-        <v>680.0389287085438</v>
+        <v>633.2375922995768</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023262</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557696</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338447</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
         <v>626.6887139059205</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075481</v>
+        <v>540.970556707549</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.7795602237113</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5146922106384</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5146922106384</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
@@ -5604,22 +5604,22 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S18" t="n">
-        <v>563.7824606764863</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="T18" t="n">
         <v>373.3154131506464</v>
@@ -5628,16 +5628,16 @@
         <v>373.3154131506464</v>
       </c>
       <c r="V18" t="n">
-        <v>373.3154131506464</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="W18" t="n">
-        <v>373.3154131506464</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="X18" t="n">
-        <v>373.3154131506464</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.3154131506464</v>
+        <v>182.8483656248064</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>463.5335379340411</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H20" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897389</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>70.94848926897389</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K20" t="n">
-        <v>209.2032564993873</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L20" t="n">
-        <v>255.9765947296813</v>
+        <v>248.5350816744163</v>
       </c>
       <c r="M20" t="n">
-        <v>336.896905452833</v>
+        <v>329.4553923975681</v>
       </c>
       <c r="N20" t="n">
-        <v>412.2841553860712</v>
+        <v>404.8426423308062</v>
       </c>
       <c r="O20" t="n">
-        <v>446.5608390195007</v>
+        <v>439.1193259642358</v>
       </c>
       <c r="P20" t="n">
-        <v>633.2375922995765</v>
+        <v>578.5004165056289</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.2375922995765</v>
+        <v>578.5004165056289</v>
       </c>
       <c r="R20" t="n">
-        <v>633.2375922995765</v>
+        <v>680.0389287085439</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995765</v>
+        <v>680.0389287085439</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
         <v>730.5573952557697</v>
@@ -5792,10 +5792,10 @@
         <v>689.6767164338448</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075483</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>365.9269664776747</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="C21" t="n">
-        <v>176.5146922106384</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="D21" t="n">
-        <v>176.5146922106384</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="E21" t="n">
-        <v>176.5146922106384</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5146922106384</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5146922106384</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905399</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R21" t="n">
-        <v>747.3338450905399</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S21" t="n">
-        <v>746.8610615293545</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T21" t="n">
-        <v>746.8610615293545</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="U21" t="n">
-        <v>746.8610615293545</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="V21" t="n">
-        <v>556.3940140035146</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="W21" t="n">
-        <v>556.3940140035146</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="X21" t="n">
-        <v>556.3940140035146</v>
+        <v>492.9835804791832</v>
       </c>
       <c r="Y21" t="n">
-        <v>365.9269664776747</v>
+        <v>302.5165329533432</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340419</v>
+        <v>463.533537934042</v>
       </c>
       <c r="C23" t="n">
         <v>410.2194918844282</v>
@@ -5975,64 +5975,64 @@
         <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019091</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267294</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>41.99990691914647</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J23" t="n">
-        <v>228.6766601992223</v>
+        <v>201.7617434441225</v>
       </c>
       <c r="K23" t="n">
-        <v>228.6766601992223</v>
+        <v>388.4384967241986</v>
       </c>
       <c r="L23" t="n">
-        <v>275.4499984295163</v>
+        <v>435.2118349544925</v>
       </c>
       <c r="M23" t="n">
-        <v>356.3703091526681</v>
+        <v>516.1321456776443</v>
       </c>
       <c r="N23" t="n">
-        <v>431.7575590859062</v>
+        <v>591.5193956108824</v>
       </c>
       <c r="O23" t="n">
-        <v>466.0342427193358</v>
+        <v>625.796079244312</v>
       </c>
       <c r="P23" t="n">
-        <v>466.0342427193358</v>
+        <v>625.796079244312</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.7109959994117</v>
+        <v>625.796079244312</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023268</v>
+        <v>625.796079244312</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023268</v>
+        <v>695.0121809240892</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557704</v>
+        <v>730.5573952557706</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338457</v>
+        <v>689.676716433846</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059215</v>
+        <v>626.6887139059218</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.970556707549</v>
+        <v>540.9705567075492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>326.1120000289325</v>
+        <v>182.8483656248065</v>
       </c>
       <c r="C24" t="n">
-        <v>326.1120000289325</v>
+        <v>182.8483656248065</v>
       </c>
       <c r="D24" t="n">
-        <v>165.3318837899643</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="E24" t="n">
-        <v>165.3318837899643</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F24" t="n">
-        <v>165.3318837899643</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0770571963512</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110308</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="R24" t="n">
-        <v>707.0460950806128</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="S24" t="n">
-        <v>707.0460950806128</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="T24" t="n">
-        <v>516.5790475547726</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="U24" t="n">
-        <v>516.5790475547726</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="V24" t="n">
-        <v>516.5790475547726</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="W24" t="n">
-        <v>516.5790475547726</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="X24" t="n">
-        <v>516.5790475547726</v>
+        <v>182.8483656248065</v>
       </c>
       <c r="Y24" t="n">
-        <v>326.1120000289325</v>
+        <v>182.8483656248065</v>
       </c>
     </row>
     <row r="25">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792719</v>
+        <v>882.8924400792735</v>
       </c>
       <c r="D26" t="n">
-        <v>757.331649196247</v>
+        <v>757.3316491962487</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471525</v>
+        <v>597.7236336471543</v>
       </c>
       <c r="F26" t="n">
-        <v>406.074873069394</v>
+        <v>406.0748730693961</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577049</v>
+        <v>198.6295596577071</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662755</v>
+        <v>63.72957914662742</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847215</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629834</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946297</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191336</v>
+        <v>926.3413643191342</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436482</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6251,25 +6251,25 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>352.3377624955939</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="C27" t="n">
-        <v>162.9254882285576</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="D27" t="n">
-        <v>162.9254882285576</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="E27" t="n">
-        <v>162.9254882285576</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="F27" t="n">
-        <v>162.9254882285576</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="G27" t="n">
-        <v>162.9254882285576</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>47.93796012994486</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K27" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261398</v>
@@ -6330,25 +6330,25 @@
         <v>793.3606943740706</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740706</v>
+        <v>599.8380156942</v>
       </c>
       <c r="T27" t="n">
-        <v>687.0962029629775</v>
+        <v>382.696400597328</v>
       </c>
       <c r="U27" t="n">
-        <v>663.0951110428789</v>
+        <v>358.6953086772295</v>
       </c>
       <c r="V27" t="n">
-        <v>635.6386017021015</v>
+        <v>115.6155905808636</v>
       </c>
       <c r="W27" t="n">
-        <v>581.8632411879813</v>
+        <v>61.84023006674357</v>
       </c>
       <c r="X27" t="n">
-        <v>577.9784555602662</v>
+        <v>57.95544443902856</v>
       </c>
       <c r="Y27" t="n">
-        <v>352.3377624955939</v>
+        <v>47.93796012994486</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.4132171650507</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041503</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9529149041503</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9529149041503</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="F28" t="n">
-        <v>117.9529149041503</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="G28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="I28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="J28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="K28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="L28" t="n">
-        <v>162.2716038460429</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224446</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177475</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757524</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U28" t="n">
-        <v>157.752514069558</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024698</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398223</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063887</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792736</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962488</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.0748730693961</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577071</v>
       </c>
       <c r="H29" t="n">
         <v>63.72957914662766</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946301</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6479,7 +6479,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.662612870715</v>
@@ -6488,25 +6488,25 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V29" t="n">
         <v>1627.258702662881</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998504</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261398</v>
@@ -6567,25 +6567,25 @@
         <v>793.3606943740706</v>
       </c>
       <c r="S30" t="n">
-        <v>599.8380156942</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="T30" t="n">
-        <v>598.3196093529166</v>
+        <v>791.8422880327872</v>
       </c>
       <c r="U30" t="n">
-        <v>574.3185174328182</v>
+        <v>767.8411961126889</v>
       </c>
       <c r="V30" t="n">
-        <v>546.8620080920409</v>
+        <v>740.3846867719116</v>
       </c>
       <c r="W30" t="n">
-        <v>277.4634388223323</v>
+        <v>470.9861175022029</v>
       </c>
       <c r="X30" t="n">
-        <v>261.5623547866892</v>
+        <v>467.1013318744879</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.92166172201684</v>
+        <v>241.4606388098155</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>119.545573084004</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>119.545573084004</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
-        <v>119.545573084004</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398189</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X31" t="n">
-        <v>39.6330719706387</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792732</v>
+        <v>882.8924400792728</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962485</v>
+        <v>757.3316491962478</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471541</v>
+        <v>597.7236336471534</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693949</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662754</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946298</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100842</v>
@@ -6728,16 +6728,16 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
         <v>1353.778677628125</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>241.4606388098154</v>
+        <v>241.460638809815</v>
       </c>
       <c r="C33" t="n">
-        <v>241.4606388098154</v>
+        <v>241.460638809815</v>
       </c>
       <c r="D33" t="n">
-        <v>209.4848656006024</v>
+        <v>241.460638809815</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201684</v>
+        <v>241.460638809815</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201684</v>
+        <v>241.460638809815</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201684</v>
+        <v>91.21374518389729</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004876</v>
@@ -6807,22 +6807,22 @@
         <v>793.3606943740705</v>
       </c>
       <c r="T33" t="n">
-        <v>576.2190792771985</v>
+        <v>791.842288032787</v>
       </c>
       <c r="U33" t="n">
-        <v>552.2179873571001</v>
+        <v>767.8411961126885</v>
       </c>
       <c r="V33" t="n">
-        <v>524.7614780163228</v>
+        <v>524.7614780163226</v>
       </c>
       <c r="W33" t="n">
-        <v>470.9861175022028</v>
+        <v>255.3629087466139</v>
       </c>
       <c r="X33" t="n">
-        <v>251.4781231188991</v>
+        <v>251.4781231188988</v>
       </c>
       <c r="Y33" t="n">
-        <v>241.4606388098154</v>
+        <v>241.460638809815</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.41321716505084</v>
+        <v>71.41321716505077</v>
       </c>
       <c r="C34" t="n">
-        <v>117.9529149041506</v>
+        <v>71.41321716505077</v>
       </c>
       <c r="D34" t="n">
-        <v>185.5543980572994</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="E34" t="n">
-        <v>221.9711491805508</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="F34" t="n">
-        <v>221.9711491805508</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="G34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="H34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="I34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="J34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224435</v>
+        <v>79.89883730020111</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398213</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063883</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144261</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589363</v>
@@ -6935,31 +6935,31 @@
         <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797032</v>
+        <v>214.1901826957314</v>
       </c>
       <c r="K35" t="n">
-        <v>278.690482087853</v>
+        <v>472.0439932256141</v>
       </c>
       <c r="L35" t="n">
-        <v>325.4638203181469</v>
+        <v>518.8173314559081</v>
       </c>
       <c r="M35" t="n">
-        <v>583.3176308480296</v>
+        <v>599.7376421790598</v>
       </c>
       <c r="N35" t="n">
-        <v>658.7048807812677</v>
+        <v>731.4209597308179</v>
       </c>
       <c r="O35" t="n">
-        <v>692.9815644146972</v>
+        <v>765.6976433642475</v>
       </c>
       <c r="P35" t="n">
-        <v>899.6114250000519</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="Q35" t="n">
-        <v>899.6114250000519</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="R35" t="n">
-        <v>976.038671405235</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="S35" t="n">
         <v>1020.14350728728</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>580.0922323155511</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="C36" t="n">
-        <v>580.0922323155511</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="D36" t="n">
-        <v>580.0922323155511</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="E36" t="n">
-        <v>406.5290284369655</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="F36" t="n">
-        <v>406.5290284369655</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="G36" t="n">
-        <v>256.2821348110478</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="H36" t="n">
-        <v>129.278308304507</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
         <v>20.83667155797032</v>
@@ -7050,16 +7050,16 @@
         <v>778.2757042100239</v>
       </c>
       <c r="V36" t="n">
-        <v>758.6280852424861</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="W36" t="n">
-        <v>758.6280852424861</v>
+        <v>515.1864168619138</v>
       </c>
       <c r="X36" t="n">
-        <v>758.6280852424861</v>
+        <v>326.3763509914462</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.6280852424861</v>
+        <v>326.3763509914462</v>
       </c>
     </row>
     <row r="37">
@@ -7090,37 +7090,37 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="T37" t="n">
         <v>56.03657271633976</v>
@@ -7172,37 +7172,37 @@
         <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1901826957314</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1901826957314</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L38" t="n">
-        <v>260.9635209260254</v>
+        <v>325.4638203181469</v>
       </c>
       <c r="M38" t="n">
-        <v>518.8173314559081</v>
+        <v>406.3841310412986</v>
       </c>
       <c r="N38" t="n">
-        <v>594.2045813891461</v>
+        <v>654.9937133256348</v>
       </c>
       <c r="O38" t="n">
-        <v>768.0690447111319</v>
+        <v>689.2703969590643</v>
       </c>
       <c r="P38" t="n">
-        <v>768.0690447111319</v>
+        <v>943.7162608820973</v>
       </c>
       <c r="Q38" t="n">
-        <v>948.6294283204198</v>
+        <v>943.7162608820973</v>
       </c>
       <c r="R38" t="n">
-        <v>948.6294283204198</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7342642024653</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>244.16252523268</v>
+        <v>313.0107104696645</v>
       </c>
       <c r="C39" t="n">
-        <v>244.16252523268</v>
+        <v>123.5984362026282</v>
       </c>
       <c r="D39" t="n">
-        <v>244.16252523268</v>
+        <v>123.5984362026282</v>
       </c>
       <c r="E39" t="n">
-        <v>70.59932135409449</v>
+        <v>123.5984362026282</v>
       </c>
       <c r="F39" t="n">
-        <v>70.59932135409449</v>
+        <v>123.5984362026282</v>
       </c>
       <c r="G39" t="n">
-        <v>70.59932135409449</v>
+        <v>123.5984362026282</v>
       </c>
       <c r="H39" t="n">
-        <v>70.59932135409449</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
         <v>20.83667155797032</v>
@@ -7275,28 +7275,28 @@
         <v>778.2757042100239</v>
       </c>
       <c r="R39" t="n">
-        <v>642.2063725429188</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S39" t="n">
-        <v>642.2063725429188</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="T39" t="n">
-        <v>642.2063725429188</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="U39" t="n">
-        <v>642.2063725429188</v>
+        <v>538.6514035343369</v>
       </c>
       <c r="V39" t="n">
-        <v>642.2063725429188</v>
+        <v>538.6514035343369</v>
       </c>
       <c r="W39" t="n">
-        <v>642.2063725429188</v>
+        <v>538.6514035343369</v>
       </c>
       <c r="X39" t="n">
-        <v>422.6983781596151</v>
+        <v>538.6514035343369</v>
       </c>
       <c r="Y39" t="n">
-        <v>422.6983781596151</v>
+        <v>313.0107104696645</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>37.6011886310084</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
+        <v>39.27205564330168</v>
+      </c>
+      <c r="V40" t="n">
+        <v>39.27205564330168</v>
+      </c>
+      <c r="W40" t="n">
         <v>20.83667155797032</v>
       </c>
-      <c r="V40" t="n">
-        <v>47.51782660177362</v>
-      </c>
-      <c r="W40" t="n">
-        <v>29.08244251644226</v>
-      </c>
       <c r="X40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.08244251644226</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
-        <v>190.670379421188</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K41" t="n">
-        <v>190.670379421188</v>
+        <v>260.0383433367451</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2745289587278</v>
+        <v>545.3985283362523</v>
       </c>
       <c r="M41" t="n">
-        <v>607.7816864510928</v>
+        <v>864.9056858286173</v>
       </c>
       <c r="N41" t="n">
-        <v>921.7557831535443</v>
+        <v>1178.879782531069</v>
       </c>
       <c r="O41" t="n">
-        <v>1194.619313556187</v>
+        <v>1344.427463858279</v>
       </c>
       <c r="P41" t="n">
-        <v>1194.619313556187</v>
+        <v>1344.427463858279</v>
       </c>
       <c r="Q41" t="n">
         <v>1344.427463858279</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>338.743711499296</v>
+        <v>759.5406911531664</v>
       </c>
       <c r="C42" t="n">
-        <v>338.743711499296</v>
+        <v>570.1284168861301</v>
       </c>
       <c r="D42" t="n">
-        <v>338.743711499296</v>
+        <v>409.3483006471619</v>
       </c>
       <c r="E42" t="n">
-        <v>338.743711499296</v>
+        <v>235.7850967685763</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3159952165401</v>
+        <v>235.7850967685763</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="H42" t="n">
         <v>28.06910159062234</v>
@@ -7509,31 +7509,31 @@
         <v>785.508134242676</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.508134242676</v>
       </c>
       <c r="R42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.508134242676</v>
       </c>
       <c r="S42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.508134242676</v>
       </c>
       <c r="T42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.508134242676</v>
       </c>
       <c r="U42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.508134242676</v>
       </c>
       <c r="V42" t="n">
-        <v>590.3518476534779</v>
+        <v>785.508134242676</v>
       </c>
       <c r="W42" t="n">
-        <v>564.3844045639684</v>
+        <v>759.5406911531664</v>
       </c>
       <c r="X42" t="n">
-        <v>564.3844045639684</v>
+        <v>759.5406911531664</v>
       </c>
       <c r="Y42" t="n">
-        <v>338.743711499296</v>
+        <v>759.5406911531664</v>
       </c>
     </row>
     <row r="43">
@@ -7546,25 +7546,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="C43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="D43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H43" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J43" t="n">
         <v>130.1759968085603</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6703794211881</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K44" t="n">
-        <v>190.6703794211881</v>
+        <v>260.0383433367452</v>
       </c>
       <c r="L44" t="n">
-        <v>476.0305644206953</v>
+        <v>306.8116815670392</v>
       </c>
       <c r="M44" t="n">
-        <v>556.9508751438472</v>
+        <v>547.2488087121975</v>
       </c>
       <c r="N44" t="n">
-        <v>870.9249718462986</v>
+        <v>861.2229054146489</v>
       </c>
       <c r="O44" t="n">
-        <v>998.2536156494818</v>
+        <v>1134.086435817292</v>
       </c>
       <c r="P44" t="n">
-        <v>1221.947246265319</v>
+        <v>1357.780066433129</v>
       </c>
       <c r="Q44" t="n">
-        <v>1371.755396567412</v>
+        <v>1357.780066433129</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.4968178733783</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="C45" t="n">
-        <v>188.4968178733783</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="D45" t="n">
-        <v>188.4968178733783</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4968178733783</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="H45" t="n">
         <v>28.06910159062234</v>
@@ -7749,28 +7749,28 @@
         <v>785.5081342426762</v>
       </c>
       <c r="R45" t="n">
-        <v>785.5081342426762</v>
+        <v>649.438802575571</v>
       </c>
       <c r="S45" t="n">
-        <v>675.037002239959</v>
+        <v>649.438802575571</v>
       </c>
       <c r="T45" t="n">
-        <v>457.895387143087</v>
+        <v>581.4447881013278</v>
       </c>
       <c r="U45" t="n">
-        <v>457.895387143087</v>
+        <v>341.8204874256408</v>
       </c>
       <c r="V45" t="n">
-        <v>457.895387143087</v>
+        <v>341.8204874256408</v>
       </c>
       <c r="W45" t="n">
-        <v>188.4968178733783</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="X45" t="n">
-        <v>188.4968178733783</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.4968178733783</v>
+        <v>315.8530443361313</v>
       </c>
     </row>
     <row r="46">
@@ -7789,16 +7789,16 @@
         <v>28.06910159062234</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062234</v>
+        <v>113.1124553355488</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062234</v>
+        <v>113.1124553355488</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062234</v>
+        <v>113.1124553355488</v>
       </c>
       <c r="H46" t="n">
-        <v>37.72555954873489</v>
+        <v>113.1124553355488</v>
       </c>
       <c r="I46" t="n">
         <v>113.1124553355488</v>
@@ -8772,7 +8772,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566415</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8781,7 +8781,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.222782891321</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9486,7 +9486,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
         <v>292.1547529041439</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.154752904144</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913211</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>206.36387407868</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.757591053278</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154582</v>
+        <v>36.3072232648766</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210495</v>
+        <v>51.94581057046793</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.60256634329395</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718766</v>
+        <v>16.53078872718769</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550866</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065499</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673098</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845967</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
         <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>12.35402412983638</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938946</v>
+        <v>15.39354104331301</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532782</v>
+        <v>98.27356846057852</v>
       </c>
       <c r="C14" t="n">
-        <v>27.98641351441459</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176722</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>193.149262737081</v>
+        <v>4.586885686499329</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154584</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046815</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384211</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718783</v>
+        <v>16.53078872718769</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065517</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012118</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938948</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
     </row>
     <row r="18">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1192206.704757486</v>
+        <v>1192206.704757485</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220482.9987941149</v>
+        <v>220482.998794115</v>
       </c>
       <c r="C2" t="n">
         <v>220482.9987941149</v>
       </c>
       <c r="D2" t="n">
-        <v>220482.998794115</v>
+        <v>220482.9987941149</v>
       </c>
       <c r="E2" t="n">
-        <v>189997.5222551197</v>
+        <v>189997.5222551196</v>
       </c>
       <c r="F2" t="n">
         <v>189997.5222551194</v>
       </c>
       <c r="G2" t="n">
+        <v>220929.6372146339</v>
+      </c>
+      <c r="H2" t="n">
         <v>220929.637214634</v>
-      </c>
-      <c r="H2" t="n">
-        <v>220929.6372146339</v>
       </c>
       <c r="I2" t="n">
         <v>220929.6372146339</v>
@@ -26338,10 +26338,10 @@
         <v>220929.6372146339</v>
       </c>
       <c r="K2" t="n">
-        <v>220929.6372146338</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="L2" t="n">
-        <v>220929.6372146338</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="M2" t="n">
         <v>220929.6372146339</v>
@@ -26350,10 +26350,10 @@
         <v>220929.6372146339</v>
       </c>
       <c r="O2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.6372146338</v>
       </c>
       <c r="P2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.6372146338</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400485</v>
+        <v>95275.95397400469</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243411</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400462</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145967</v>
+        <v>46874.1601414597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660005</v>
+        <v>72403.48181660018</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>319543.8970593064</v>
       </c>
       <c r="F4" t="n">
-        <v>319543.8970593063</v>
+        <v>319543.8970593064</v>
       </c>
       <c r="G4" t="n">
         <v>390006.8734640137</v>
@@ -26439,7 +26439,7 @@
         <v>390006.8734640137</v>
       </c>
       <c r="J4" t="n">
-        <v>390873.6905933485</v>
+        <v>390873.6905933486</v>
       </c>
       <c r="K4" t="n">
         <v>390873.6905933486</v>
@@ -26448,10 +26448,10 @@
         <v>390873.6905933486</v>
       </c>
       <c r="M4" t="n">
-        <v>390048.6636155473</v>
+        <v>390048.6636155472</v>
       </c>
       <c r="N4" t="n">
-        <v>390048.6636155473</v>
+        <v>390048.6636155474</v>
       </c>
       <c r="O4" t="n">
         <v>390435.9069882851</v>
@@ -26479,7 +26479,7 @@
         <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301863</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
         <v>38676.13884131939</v>
@@ -26491,10 +26491,10 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
         <v>47453.77647951488</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243378.7367135803</v>
+        <v>-243383.2030977855</v>
       </c>
       <c r="C6" t="n">
-        <v>-243378.7367135803</v>
+        <v>-243383.2030977855</v>
       </c>
       <c r="D6" t="n">
-        <v>-243378.7367135803</v>
+        <v>-243383.2030977855</v>
       </c>
       <c r="E6" t="n">
-        <v>-438523.1631114117</v>
+        <v>-438832.4842610069</v>
       </c>
       <c r="F6" t="n">
-        <v>-158210.3209272053</v>
+        <v>-158519.6420768008</v>
       </c>
       <c r="G6" t="n">
-        <v>-303029.329064704</v>
+        <v>-303029.3290647039</v>
       </c>
       <c r="H6" t="n">
+        <v>-207753.3750906991</v>
+      </c>
+      <c r="I6" t="n">
         <v>-207753.3750906992</v>
       </c>
-      <c r="I6" t="n">
-        <v>-207753.3750906993</v>
-      </c>
       <c r="J6" t="n">
-        <v>-361042.8333825706</v>
+        <v>-361042.8333825709</v>
       </c>
       <c r="K6" t="n">
         <v>-217397.8298582296</v>
       </c>
       <c r="L6" t="n">
-        <v>-312673.7838322345</v>
+        <v>-312673.7838322342</v>
       </c>
       <c r="M6" t="n">
         <v>-256908.2002083781</v>
@@ -26558,7 +26558,7 @@
         <v>-210034.0400669184</v>
       </c>
       <c r="O6" t="n">
-        <v>-285709.9883417763</v>
+        <v>-285709.9883417764</v>
       </c>
       <c r="P6" t="n">
         <v>-213306.5065251761</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="H2" t="n">
         <v>297.4245917920612</v>
@@ -26707,10 +26707,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680327</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
         <v>260.458394474629</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052683</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682459</v>
+        <v>58.59270017682462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406658</v>
+        <v>63.30917227406675</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052683</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
         <v>76.75309993802783</v>
       </c>
       <c r="K11" t="n">
-        <v>6.68444951827319</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>35.69716825483003</v>
+        <v>153.9394642895417</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245553</v>
+        <v>107.6804826792807</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>145.6132850424649</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>6.846506480668502</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245553</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245553</v>
+        <v>48.66568061834855</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245553</v>
+        <v>80.85994310383768</v>
       </c>
     </row>
     <row r="13">
@@ -28245,43 +28245,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245553</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.3296493245553</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245553</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245553</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245553</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245553</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245553</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245553</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L13" t="n">
-        <v>110.8278320563141</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374672</v>
+        <v>115.0967233700282</v>
       </c>
       <c r="N13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
         <v>37.45757960830505</v>
@@ -28293,28 +28293,28 @@
         <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802783</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
         <v>6.68444951827319</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
         <v>112.4136397442804</v>
       </c>
       <c r="O14" t="n">
-        <v>142.5218577062686</v>
+        <v>97.4066155126804</v>
       </c>
       <c r="P14" t="n">
-        <v>178.3296493245551</v>
+        <v>15.04365268017749</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.446419053754</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,7 +28421,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>107.3572203790713</v>
@@ -28451,28 +28451,28 @@
         <v>6.846506480668502</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245551</v>
+        <v>59.71657356030713</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>28.75053738888906</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>166.272323129878</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245551</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245551</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>153.1816768728346</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055727</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
         <v>25.19323846374672</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245551</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O16" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q16" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="J17" t="n">
-        <v>198.5106135974594</v>
+        <v>76.75309993802783</v>
       </c>
       <c r="K17" t="n">
         <v>6.68444951827319</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017749</v>
+        <v>170.7779017991647</v>
       </c>
       <c r="Q17" t="n">
         <v>89.67545097688966</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4245917920612</v>
+        <v>297.4245917920611</v>
       </c>
     </row>
     <row r="18">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>169.4359321914238</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>5.741830133647369</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28661,10 +28661,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28691,16 +28691,16 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490353</v>
+        <v>3.025074842490325</v>
       </c>
       <c r="T18" t="n">
-        <v>26.40782189532175</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28819,13 +28819,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
         <v>76.75309993802783</v>
       </c>
       <c r="K20" t="n">
-        <v>146.3357295489938</v>
+        <v>195.2468265688548</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.606029730759</v>
+        <v>155.832633025019</v>
       </c>
       <c r="Q20" t="n">
         <v>89.67545097688966</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
         <v>227.5093375700639</v>
@@ -28855,7 +28855,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,19 +28889,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668502</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>191.1193961674984</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>52.0865438648207</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>147.2220230441405</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344407</v>
+        <v>34.82190908344404</v>
       </c>
     </row>
     <row r="22">
@@ -29056,13 +29056,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>268.1835995195082</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886095</v>
+        <v>265.3154769886096</v>
       </c>
       <c r="K23" t="n">
-        <v>6.68444951827319</v>
+        <v>195.246826568855</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29080,16 +29080,16 @@
         <v>15.04365268017749</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274714</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R23" t="n">
+        <v>194.8604380517429</v>
+      </c>
+      <c r="S23" t="n">
         <v>297.4245917920612</v>
       </c>
-      <c r="S23" t="n">
-        <v>227.5093375700639</v>
-      </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>282.3000946046426</v>
       </c>
       <c r="U23" t="n">
         <v>250.1505146112862</v>
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>45.54475801748087</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
         <v>125.7337882414754</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>6.846506480668502</v>
       </c>
       <c r="R24" t="n">
-        <v>87.97725935993729</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.4078218953216</v>
+        <v>26.40782189532149</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652642979</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.7505373888888</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344393</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680339</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680334</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29369,13 +29369,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>40.56204922320592</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>109.7683524489211</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680326</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="28">
@@ -29430,22 +29430,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680326</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680326</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>213.4669766680326</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
@@ -29463,10 +29463,10 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M28" t="n">
-        <v>130.2621619752636</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984361</v>
+        <v>177.4013844512346</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830505</v>
@@ -29481,25 +29481,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>99.00069532222044</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29606,7 +29606,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.3572203790713</v>
@@ -29639,22 +29639,22 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>201.570841244184</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4669766680328</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29688,16 +29688,16 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>213.4669766680328</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L31" t="n">
-        <v>180.3559377924152</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M31" t="n">
         <v>25.19323846374672</v>
@@ -29712,31 +29712,31 @@
         <v>58.46036931460878</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>213.4449843085416</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="32">
@@ -29776,7 +29776,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
         <v>213.4669766680327</v>
@@ -29791,7 +29791,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680341</v>
       </c>
       <c r="R32" t="n">
         <v>213.4669766680327</v>
@@ -29831,19 +29831,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>127.5162995994576</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7337882414754</v>
+        <v>70.99462561421376</v>
       </c>
       <c r="I33" t="n">
         <v>107.3572203790713</v>
@@ -29879,19 +29879,19 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="W33" t="n">
-        <v>213.4669766680327</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>213.4669766680327</v>
@@ -29907,19 +29907,19 @@
         <v>213.4669766680327</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>153.7539837205595</v>
       </c>
       <c r="E34" t="n">
-        <v>178.4607383064183</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>213.4669766680327</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
         <v>165.8230575663656</v>
@@ -29937,7 +29937,7 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374673</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N34" t="n">
         <v>16.49709222984362</v>
@@ -30007,7 +30007,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802784</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
         <v>267.1428439929022</v>
@@ -30016,25 +30016,25 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7207068754858</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>56.86471476618186</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>223.7606835744751</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
         <v>89.67545097688969</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
         <v>222.4644104852103</v>
@@ -30071,19 +30071,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
         <v>52.45818464705465</v>
@@ -30122,13 +30122,13 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>221.1977781375398</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>30.39094922770769</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30162,7 +30162,7 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I37" t="n">
-        <v>200.4038910512816</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
         <v>120.2289512774728</v>
@@ -30195,7 +30195,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7609144406078</v>
+        <v>259.3163701561325</v>
       </c>
       <c r="U37" t="n">
         <v>272.0596768448573</v>
@@ -30244,40 +30244,40 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
+        <v>76.75309993802784</v>
+      </c>
+      <c r="K38" t="n">
+        <v>267.1428439929022</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>174.972052879897</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>272.0596768448573</v>
       </c>
-      <c r="K38" t="n">
-        <v>6.684449518273205</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>178.7207068754858</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>140.9977572611679</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.04365268017751</v>
-      </c>
       <c r="Q38" t="n">
+        <v>89.67545097688969</v>
+      </c>
+      <c r="R38" t="n">
         <v>272.0596768448573</v>
       </c>
-      <c r="R38" t="n">
-        <v>194.860438051743</v>
-      </c>
       <c r="S38" t="n">
+        <v>227.5093375700639</v>
+      </c>
+      <c r="T38" t="n">
+        <v>222.4644104852103</v>
+      </c>
+      <c r="U38" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="T38" t="n">
-        <v>272.0596768448573</v>
-      </c>
-      <c r="U38" t="n">
-        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30317,10 +30317,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7337882414754</v>
+        <v>23.99964124326408</v>
       </c>
       <c r="I39" t="n">
-        <v>58.09219708090838</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
         <v>52.45818464705465</v>
@@ -30347,7 +30347,7 @@
         <v>6.846506480668513</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
@@ -30356,7 +30356,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H40" t="n">
-        <v>174.4278516214829</v>
+        <v>201.3785132818903</v>
       </c>
       <c r="I40" t="n">
         <v>164.8484353357569</v>
@@ -30438,7 +30438,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0596768448573</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0596768448573</v>
@@ -30481,13 +30481,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
+        <v>76.75309993802784</v>
+      </c>
+      <c r="K41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.684449518273205</v>
-      </c>
       <c r="L41" t="n">
-        <v>51.34425384570289</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
         <v>240.9968149183972</v>
@@ -30496,13 +30496,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>132.5969673674557</v>
       </c>
       <c r="P41" t="n">
         <v>15.04365268017751</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30539,22 +30539,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>68.83937770495953</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30596,7 +30596,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>54.29070367276461</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>240.9968149183972</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>193.4470793872492</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30636,10 +30636,10 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I43" t="n">
-        <v>240.9968149183972</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2289512774728</v>
+        <v>223.3672292753899</v>
       </c>
       <c r="K43" t="n">
         <v>67.01246855587065</v>
@@ -30718,37 +30718,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
+        <v>76.7530999380278</v>
+      </c>
+      <c r="K44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K44" t="n">
-        <v>6.684449518273148</v>
-      </c>
       <c r="L44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>161.1280973959661</v>
       </c>
       <c r="N44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>93.99187895934706</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
+        <v>89.67545097688964</v>
+      </c>
+      <c r="R44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="R44" t="n">
-        <v>194.8604380517429</v>
-      </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30779,19 +30779,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.3572203790713</v>
@@ -30821,22 +30821,22 @@
         <v>6.846506480668481</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>82.22103121038182</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>147.6561246164026</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>227.5785187323527</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30870,10 +30870,10 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H46" t="n">
-        <v>175.577055503853</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I46" t="n">
-        <v>240.9968149183972</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
         <v>120.2289512774728</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.6451998062821</v>
       </c>
       <c r="L11" t="n">
         <v>47.24579619221615</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5623770505815</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630113</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32008101587002</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443778</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766561</v>
+        <v>18.005031702391</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578658</v>
       </c>
       <c r="P12" t="n">
         <v>84.5041424154505</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595871851</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87246835258293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384457</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233029</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610863</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080831</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818966</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.4812139887984</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
-        <v>78.69842460575684</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>89.90348490628148</v>
       </c>
       <c r="N13" t="n">
         <v>161.8325570947117</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>47.24579619221615</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914319</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O14" t="n">
-        <v>177.1447704673086</v>
+        <v>132.0295282737204</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443776</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766544</v>
+        <v>88.65419834766558</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,49 +35778,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7127286595871567</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D16" t="n">
-        <v>33.1469990738444</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233012</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.34544091143136</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879823</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708233</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>86.16920831696392</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947115</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099463</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366394</v>
+        <v>56.42777687366389</v>
       </c>
       <c r="J17" t="n">
-        <v>121.7575136594315</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.5623770505815</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M17" t="n">
         <v>81.73768759914319</v>
       </c>
       <c r="N17" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630113</v>
       </c>
       <c r="O17" t="n">
         <v>34.62291276103998</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>155.7342491189872</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.91525422199717</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>74.96018130685083</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077486</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.427776873664</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>139.6512800307206</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="L20" t="n">
         <v>47.24579619221615</v>
@@ -36136,22 +36136,22 @@
         <v>34.62291276103998</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5623770505815</v>
+        <v>140.7889803448415</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>27.18678460111104</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="L23" t="n">
         <v>47.24579619221615</v>
@@ -36376,16 +36376,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>59.83568411943234</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0740275578659</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545118</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300048</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497594</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602487</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671758</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290726</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878551</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911442</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628966</v>
+        <v>18.60653861629043</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,22 +36726,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306451</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606025</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.79083545580775</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.76635246655815</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>105.0689235115168</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>160.904292221391</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
@@ -36847,13 +36847,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628983</v>
+        <v>18.6065386162898</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306468</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.6185413322759</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4545081121621</v>
       </c>
       <c r="L31" t="n">
-        <v>148.226530341858</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.24061956503665</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
       </c>
       <c r="L32" t="n">
-        <v>260.712772860249</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671758</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743337</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290726</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911431</v>
+        <v>123.7915256911444</v>
       </c>
       <c r="R32" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628971</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,22 +37200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.85005600306465</v>
+        <v>35.85005600306457</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606039</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732203</v>
+        <v>8.571333469848829</v>
       </c>
       <c r="E34" t="n">
-        <v>36.78459709419334</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.7663524665583</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.2737382042859</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K35" t="n">
         <v>260.458394474629</v>
@@ -37312,25 +37312,25 @@
         <v>47.24579619221612</v>
       </c>
       <c r="M35" t="n">
-        <v>260.458394474629</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630111</v>
+        <v>133.013452072483</v>
       </c>
       <c r="O35" t="n">
         <v>34.62291276103997</v>
       </c>
       <c r="P35" t="n">
-        <v>208.7170308942976</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311433</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479334</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37458,40 +37458,40 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>35.55545571552469</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068294</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
         <v>47.24579619221612</v>
       </c>
       <c r="M38" t="n">
-        <v>260.458394474629</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630111</v>
+        <v>251.1207901861981</v>
       </c>
       <c r="O38" t="n">
-        <v>175.6206700222079</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.19923879311433</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479334</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.595266359647</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.604794055117312</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.95066166040738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>98.59005003791901</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
         <v>322.7345025175404</v>
@@ -37792,13 +37792,13 @@
         <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>167.2198801284957</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.13637686665426</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>26.98989841527682</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14837958264033</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106134</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914324</v>
+        <v>242.8657849951094</v>
       </c>
       <c r="N44" t="n">
         <v>317.1455522246984</v>
       </c>
       <c r="O44" t="n">
-        <v>128.6147917203871</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
         <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415076</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>13.48747734833328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318693</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>85.90237752012776</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.753997937487425</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14837958264033</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
